--- a/xlsx/商业_intext.xlsx
+++ b/xlsx/商业_intext.xlsx
@@ -15,411 +15,387 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>商业</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E8%BF%87%E7%A8%8B%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>商业过程管理</t>
+  </si>
+  <si>
+    <t>政策_政策_计划_商业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>工商管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E4%B8%AD%E5%BF%83</t>
+  </si>
+  <si>
+    <t>商业中心</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E8%A1%97</t>
+  </si>
+  <si>
+    <t>商业街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>商人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%8D%A2%E4%BB%B7%E5%80%BC</t>
+  </si>
+  <si>
+    <t>交换价值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E8%90%A5%E4%BC%81%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>私营企业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%9C%89%E4%BC%81%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>国有企业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>有限公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9C%8B%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>跨国公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%94%A2%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>知识产权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E7%A7%98%E5%AF%86</t>
+  </si>
+  <si>
+    <t>商业秘密</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%B3%95</t>
+  </si>
+  <si>
+    <t>商法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>资本家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%A9</t>
+  </si>
+  <si>
+    <t>专利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A8%99</t>
+  </si>
+  <si>
+    <t>商标</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%88%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>版权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%98%E6%83%A0%E5%88%B8</t>
+  </si>
+  <si>
+    <t>优惠券</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%A5%AD%E5%85%AC%E6%9C%83</t>
+  </si>
+  <si>
+    <t>同业公会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E9%AB%94%E6%88%B6</t>
+  </si>
+  <si>
+    <t>个体户</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BF%83%E5%95%86%E5%8B%99%E5%8D%80</t>
+  </si>
+  <si>
+    <t>中心商务区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B6%E5%94%AE%E5%95%86</t>
+  </si>
+  <si>
+    <t>零售商</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%94%80%E5%94%AE</t>
+  </si>
+  <si>
+    <t>销售</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7</t>
+  </si>
+  <si>
+    <t>行销</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E9%8A%B7</t>
+  </si>
+  <si>
+    <t>直销</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%B1%A4%E6%AC%A1%E5%82%B3%E9%8A%B7</t>
+  </si>
+  <si>
+    <t>多层次传销</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%A4%E5%A3%93%E5%BC%8F%E6%8E%A8%E9%8A%B7</t>
+  </si>
+  <si>
+    <t>层压式推销</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%99%90%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>无限公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>股份有限公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E5%BC%B1%E5%8D%B1%E6%A9%9F%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>强弱危机分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%8A%9B%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>五力分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%95%86%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>Template talk-商业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%93%81</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8A%A1</t>
+  </si>
+  <si>
+    <t>服务</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93</t>
+  </si>
+  <si>
+    <t>贸易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>产业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%B7%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF</t>
+  </si>
+  <si>
+    <t>微软</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>索尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/IBM</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E6%83%B3</t>
+  </si>
+  <si>
+    <t>联想</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8</t>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E9%87%91</t>
+  </si>
+  <si>
+    <t>资金</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E5%8D%81%E5%AD%97%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>红十字会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
+  </si>
+  <si>
+    <t>利润</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%98%93</t>
+  </si>
+  <si>
+    <t>交易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>市场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E7%A4%BE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>原始社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E7%89%A9%E6%98%93%E7%89%A9</t>
+  </si>
+  <si>
+    <t>以物易物</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%8D%A2</t>
+  </si>
+  <si>
+    <t>交换</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B5%84</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E8%A1%97</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9B%BD%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E4%BA%A7%E6%9D%83</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E5%88%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A0%87</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%88%E6%9D%83</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BF%83%E5%95%86%E5%8A%A1%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E9%94%80</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>商業</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_商业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E8%BF%87%E7%A8%8B%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>商业过程管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>工商管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87</t>
-  </si>
-  <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E4%B8%AD%E5%BF%83</t>
-  </si>
-  <si>
-    <t>商業中心</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E8%A1%97</t>
-  </si>
-  <si>
-    <t>商業街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>商人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%8D%A2%E4%BB%B7%E5%80%BC</t>
-  </si>
-  <si>
-    <t>交换价值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E8%90%A5%E4%BC%81%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>私营企业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%9C%89%E4%BC%81%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>国有企业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>有限公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9C%8B%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>跨國公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%94%A2%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>知識產權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E7%A7%98%E5%AF%86</t>
-  </si>
-  <si>
-    <t>商业秘密</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%B3%95</t>
-  </si>
-  <si>
-    <t>商法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>资本家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%A9</t>
-  </si>
-  <si>
-    <t>專利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A8%99</t>
-  </si>
-  <si>
-    <t>商標</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%88%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>版權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%98%E6%83%A0%E5%88%B8</t>
-  </si>
-  <si>
-    <t>优惠券</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%A5%AD%E5%85%AC%E6%9C%83</t>
-  </si>
-  <si>
-    <t>同業公會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E9%AB%94%E6%88%B6</t>
-  </si>
-  <si>
-    <t>個體戶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BF%83%E5%95%86%E5%8B%99%E5%8D%80</t>
-  </si>
-  <si>
-    <t>中心商務區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B6%E5%94%AE%E5%95%86</t>
-  </si>
-  <si>
-    <t>零售商</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%94%80%E5%94%AE</t>
-  </si>
-  <si>
-    <t>销售</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7</t>
-  </si>
-  <si>
-    <t>行銷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E9%8A%B7</t>
-  </si>
-  <si>
-    <t>直銷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%B1%A4%E6%AC%A1%E5%82%B3%E9%8A%B7</t>
-  </si>
-  <si>
-    <t>多層次傳銷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%A4%E5%A3%93%E5%BC%8F%E6%8E%A8%E9%8A%B7</t>
-  </si>
-  <si>
-    <t>層壓式推銷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%99%90%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>無限公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>股份有限公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E5%BC%B1%E5%8D%B1%E6%A9%9F%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>強弱危機分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%8A%9B%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>五力分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%95%86%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>Template talk-商業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%93%81</t>
-  </si>
-  <si>
-    <t>商品</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8A%A1</t>
-  </si>
-  <si>
-    <t>服务</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93</t>
-  </si>
-  <si>
-    <t>贸易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>产业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%B7%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>价格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF</t>
-  </si>
-  <si>
-    <t>微软</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>索尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/IBM</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E6%83%B3</t>
-  </si>
-  <si>
-    <t>联想</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8</t>
-  </si>
-  <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E9%87%91</t>
-  </si>
-  <si>
-    <t>资金</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>基金会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E5%8D%81%E5%AD%97%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>红十字会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
-  </si>
-  <si>
-    <t>利润</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%98%93</t>
-  </si>
-  <si>
-    <t>交易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>市場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E7%A4%BE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>原始社会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E7%89%A9%E6%98%93%E7%89%A9</t>
-  </si>
-  <si>
-    <t>以物易物</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%8D%A2</t>
-  </si>
-  <si>
-    <t>交换</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC</t>
-  </si>
-  <si>
-    <t>價值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B5%84</t>
-  </si>
-  <si>
-    <t>投资</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E8%A1%97</t>
-  </si>
-  <si>
-    <t>商业街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9B%BD%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>跨国公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E4%BA%A7%E6%9D%83</t>
-  </si>
-  <si>
-    <t>知识产权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E5%88%A9</t>
-  </si>
-  <si>
-    <t>专利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A0%87</t>
-  </si>
-  <si>
-    <t>商标</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%88%E6%9D%83</t>
-  </si>
-  <si>
-    <t>版权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BF%83%E5%95%86%E5%8A%A1%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>中心商务区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E9%94%80</t>
-  </si>
-  <si>
-    <t>直销</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -768,7 +744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -851,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -967,7 +943,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -1025,7 +1001,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -1083,7 +1059,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -1112,7 +1088,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -1460,7 +1436,7 @@
         <v>48</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -1489,7 +1465,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
@@ -1518,7 +1494,7 @@
         <v>52</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -1547,7 +1523,7 @@
         <v>54</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -1576,7 +1552,7 @@
         <v>56</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -1634,7 +1610,7 @@
         <v>60</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -1692,7 +1668,7 @@
         <v>64</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -1721,7 +1697,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -1750,7 +1726,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -1779,7 +1755,7 @@
         <v>70</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -1837,7 +1813,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -1866,7 +1842,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -2098,7 +2074,7 @@
         <v>92</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -2127,7 +2103,7 @@
         <v>94</v>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -2156,7 +2132,7 @@
         <v>96</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
@@ -2185,7 +2161,7 @@
         <v>98</v>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -2330,7 +2306,7 @@
         <v>108</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -2359,7 +2335,7 @@
         <v>110</v>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -2382,13 +2358,13 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -2411,10 +2387,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2440,7 +2416,7 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
         <v>8</v>
@@ -2469,10 +2445,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2498,7 +2474,7 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
@@ -2527,10 +2503,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2585,10 +2561,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2614,10 +2590,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2643,10 +2619,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="F65" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2730,7 +2706,7 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="F68" t="s">
         <v>34</v>
@@ -2759,13 +2735,13 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F69" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
@@ -2788,13 +2764,13 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F70" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -2817,10 +2793,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2904,7 +2880,7 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="F74" t="s">
         <v>46</v>
@@ -2933,10 +2909,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -2991,7 +2967,7 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="F77" t="s">
         <v>54</v>
@@ -3020,10 +2996,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F78" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3049,10 +3025,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F79" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3078,18 +3054,47 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F80" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
       </c>
       <c r="I80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>124</v>
+      </c>
+      <c r="F81" t="s">
+        <v>126</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/商业_intext.xlsx
+++ b/xlsx/商业_intext.xlsx
@@ -29,7 +29,7 @@
     <t>商業</t>
   </si>
   <si>
-    <t>政策_政策_美國_商业</t>
+    <t>体育运动_体育运动_古埃及_商业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E8%BF%87%E7%A8%8B%E7%AE%A1%E7%90%86</t>
